--- a/anotacoes.xlsx
+++ b/anotacoes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Verificar remoção das categorias. Apagar apenas as categorias e atualizar as despesas/receitas para não terem nenhuma categoria</t>
   </si>
@@ -34,6 +34,21 @@
   </si>
   <si>
     <t>Implementar PDO nas consultas</t>
+  </si>
+  <si>
+    <t>Adicionar comentarios e minificar arquivos do modulo gerencial</t>
+  </si>
+  <si>
+    <t>Desenvolver website do sistema</t>
+  </si>
+  <si>
+    <t>Ajustar layout do sistema</t>
+  </si>
+  <si>
+    <t>Mudar scroll ao passar mouse nas linhas do grid onde é possivel selecionar (colocar "hand")</t>
+  </si>
+  <si>
+    <t>Definir cor de fonte e tamanhos para menu e textos em geral</t>
   </si>
 </sst>
 </file>
@@ -429,7 +444,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,29 +489,59 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="3">
+        <v>41684</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="3">
+        <v>41684</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="3">
+        <v>41684</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="3">
+        <v>41684</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="3">
+        <v>41684</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
